--- a/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-UNITS_OF_MEASURE_01_valid.xlsx
+++ b/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-UNITS_OF_MEASURE_01_valid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Work/gsq/gsq-geochem/profiles/gsq/scripts/geochemxl/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB00218-040B-2044-9B2B-FC14385FE3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AEA747-9EA7-5348-A01D-B70E07C27B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47400" yWindow="500" windowWidth="41600" windowHeight="21100" tabRatio="842" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1252,31 +1252,31 @@
     <t>A dummy unit of measure</t>
   </si>
   <si>
+    <t>BPC</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>LABEL: A label for the unit of measure</t>
+  </si>
+  <si>
+    <t>Blobs Per Chunk</t>
+  </si>
+  <si>
+    <t>PERMEABILITY</t>
+  </si>
+  <si>
+    <t>Rounds</t>
+  </si>
+  <si>
+    <t>A nother dummy unit</t>
+  </si>
+  <si>
+    <t>VISCOSITY</t>
+  </si>
+  <si>
     <t>BLOBS PER CHUNK (BPC)</t>
-  </si>
-  <si>
-    <t>BPC</t>
-  </si>
-  <si>
-    <t>LABEL</t>
-  </si>
-  <si>
-    <t>LABEL: A label for the unit of measure</t>
-  </si>
-  <si>
-    <t>Blobs Per Chunk</t>
-  </si>
-  <si>
-    <t>PERMEABILITY</t>
-  </si>
-  <si>
-    <t>Rounds</t>
-  </si>
-  <si>
-    <t>A nother dummy unit</t>
-  </si>
-  <si>
-    <t>VISCOSITY</t>
   </si>
 </sst>
 </file>
@@ -3492,8 +3492,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3567,7 +3567,7 @@
         <v>356</v>
       </c>
       <c r="O1" s="95" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P1" s="95" t="s">
         <v>357</v>
@@ -3588,7 +3588,7 @@
         <v>360</v>
       </c>
       <c r="V1" s="95" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="W1" s="95" t="s">
         <v>361</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B15" s="33" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3938,22 +3938,22 @@
     <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="80" showAutoFilter="1" topLeftCell="N1">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:W14" xr:uid="{F6AC64FF-C0F2-2142-96AD-7772E6B1C43E}"/>
+      <autoFilter ref="B1:W14" xr:uid="{E21E1168-164A-BD46-A02A-6C6841BC7FD0}"/>
     </customSheetView>
     <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="80" showAutoFilter="1">
       <selection activeCell="R17" sqref="R17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:W14" xr:uid="{9607062C-5611-5645-86E0-7E43118CD2DC}"/>
+      <autoFilter ref="A1:W14" xr:uid="{3D446E04-84E3-5645-B734-435690D52BC7}"/>
     </customSheetView>
     <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80" showAutoFilter="1" topLeftCell="F1">
       <selection activeCell="L8" sqref="L8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:X1" xr:uid="{C01F6226-9FCC-6245-A173-78490CEAA060}"/>
+      <autoFilter ref="B1:X1" xr:uid="{94D3CBBD-A296-2D41-B512-41D8D7FBA919}"/>
     </customSheetView>
     <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="80" showAutoFilter="1" topLeftCell="N1">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:W14" xr:uid="{F62D30A7-5B62-FA4B-A228-4975828C6791}"/>
+      <autoFilter ref="B1:W14" xr:uid="{C3B1A6F8-5E48-0346-8A74-A5940636B3B5}"/>
     </customSheetView>
   </customSheetViews>
   <dataValidations count="1">
@@ -3975,7 +3975,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -3996,7 +3996,7 @@
         <v>338</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E1" s="79" t="s">
         <v>14</v>
@@ -4116,7 +4116,7 @@
         <v>335</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E8" s="83" t="s">
         <v>339</v>
@@ -4147,10 +4147,10 @@
         <v>345</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E10" s="70" t="s">
         <v>366</v>
@@ -4166,10 +4166,10 @@
         <v>362</v>
       </c>
       <c r="D11" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="E11" s="70" t="s">
         <v>373</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>374</v>
       </c>
       <c r="F11" s="70"/>
     </row>
